--- a/tests/data/test_PS-table.xlsx
+++ b/tests/data/test_PS-table.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="L1 PS table v2_1_0" sheetId="1" state="visible" r:id="rId2"/>
@@ -247,19 +247,19 @@
   </sheetPr>
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="57.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="4" style="0" width="9.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="8.53"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="5.35627530364372"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="58.165991902834"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.7125506072875"/>
+    <col collapsed="false" hidden="false" max="11" min="4" style="0" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -343,28 +343,28 @@
         <v>0</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>63000</v>
+        <v>1</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>63000</v>
+        <v>2</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>63000</v>
+        <v>3</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>63000</v>
+        <v>4</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>63000</v>
+        <v>5</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>63000</v>
+        <v>6</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>63000</v>
+        <v>7</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>63000</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -381,7 +381,7 @@
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
